--- a/owlcms/src/main/resources/templates/cards/Card-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/cards/Card-LETTER.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\local\templates\cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBE38D5-C0D8-4D7B-AD77-2BD1739DBEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA71AF58-374F-41C7-B8B8-F6A1AE3A3626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$I</definedName>
+  </definedNames>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,10 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
-  <si>
-    <t>${session.localizedStartHour}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>${competition.competitionName} / ${competition.competitionCity}</t>
   </si>
@@ -102,18 +102,9 @@
     <t>${t.get("Card.birthDate")}</t>
   </si>
   <si>
-    <t>${l.category}</t>
-  </si>
-  <si>
-    <t>${l.formattedBirth}</t>
-  </si>
-  <si>
     <t>${t.get("Card.startNumber")}</t>
   </si>
   <si>
-    <t>${t.get("Group")}: ${session.name}</t>
-  </si>
-  <si>
     <t>${t.get("Card.entryTotal")}</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>${athlete.ageGroup.code}</t>
   </si>
   <si>
-    <t>${t.get("Card.category")}${t.get("AgeGroup")</t>
-  </si>
-  <si>
     <t>${t.get("Total")}</t>
   </si>
   <si>
@@ -165,7 +153,13 @@
     <t>${t.get("Card.RequiredCJ")}</t>
   </si>
   <si>
-    <t>${session.localizedStartDay}</t>
+    <t>${t.get("Group")}: ${athlete.group}</t>
+  </si>
+  <si>
+    <t>${athlete.group.localizedStartDay}</t>
+  </si>
+  <si>
+    <t>${athlete.group.localizedStartHour}</t>
   </si>
 </sst>
 </file>
@@ -623,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -651,17 +645,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -721,9 +709,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -811,16 +796,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,10 +1151,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,250 +1163,249 @@
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="17" t="s">
-        <v>33</v>
+      <c r="C1" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="F2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="16"/>
+      <c r="F8" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="F9" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="62">
+        <v>1</v>
+      </c>
+      <c r="B10" s="63"/>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
+      <c r="F10" s="62">
+        <v>1</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="13">
+        <v>2</v>
+      </c>
+      <c r="I10" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="F2" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="18"/>
-      <c r="F8" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="F9" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66">
-        <v>1</v>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="15">
-        <v>2</v>
-      </c>
-      <c r="D10" s="16">
-        <v>3</v>
-      </c>
-      <c r="F10" s="66">
-        <v>1</v>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="15">
-        <v>2</v>
-      </c>
-      <c r="I10" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -1437,58 +1415,58 @@
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1502,57 +1480,57 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>2</v>
+      <c r="A19" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1566,101 +1544,43 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>2</v>
+      <c r="A23" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="9"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="19"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="F31" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A26:B26"/>
+  <mergeCells count="18">
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A27:B27"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="F11:G12"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G4:I4"/>

--- a/owlcms/src/main/resources/templates/cards/Card-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/cards/Card-LETTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA71AF58-374F-41C7-B8B8-F6A1AE3A3626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49848D9E-E932-46D8-A8C6-9166F1715A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -323,62 +323,244 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -386,118 +568,60 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="medium">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="medium">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal style="medium">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal style="medium">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal style="medium">
@@ -506,11 +630,11 @@
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal style="medium">
@@ -518,10 +642,19 @@
       </diagonal>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="dotted">
@@ -531,7 +664,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -543,7 +676,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
       <top style="dotted">
         <color rgb="FF000000"/>
       </top>
@@ -552,37 +687,48 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dotted">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -591,25 +737,25 @@
       <left style="dotted">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,201 +763,202 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,10 +1298,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,412 +1318,415 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="F2" s="35" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="39" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="42" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="54" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="59"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="33" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="61" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="16"/>
-      <c r="F8" s="57" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
+    </row>
+    <row r="9" spans="1:9" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="F9" s="59" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="F9" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62">
-        <v>1</v>
-      </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="13">
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="68"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38">
         <v>2</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="38">
         <v>3</v>
       </c>
-      <c r="F10" s="62">
-        <v>1</v>
-      </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="13">
+      <c r="F10" s="37">
+        <v>1</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38">
         <v>2</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="29" t="s">
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="29" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="21" t="s">
+      <c r="A15" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21" t="s">
+      <c r="A19" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="57"/>
+      <c r="C21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="21" t="s">
+      <c r="A23" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="9"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="9"/>
-    </row>
+      <c r="A24" s="52"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A11:B12"/>
@@ -1593,8 +1743,6 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
